--- a/tests/output/all_metadata/pgs_all_metadata.xlsx
+++ b/tests/output/all_metadata/pgs_all_metadata.xlsx
@@ -238,19 +238,19 @@
     <t>Extra comment for test</t>
   </si>
   <si>
-    <t>1.24 [1.20, 1.29]</t>
-  </si>
-  <si>
-    <t>1.53 [1.50, 1.56]</t>
-  </si>
-  <si>
-    <t>1.64 [1.6, 1.68]</t>
-  </si>
-  <si>
-    <t>0.522 [0.519, 0.527]</t>
-  </si>
-  <si>
-    <t>0.581 [0.571, 0.592]</t>
+    <t>1.24 [1.2,1.29]</t>
+  </si>
+  <si>
+    <t>1.53 [1.5,1.56]</t>
+  </si>
+  <si>
+    <t>1.64 [1.6,1.68]</t>
+  </si>
+  <si>
+    <t>0.522 [0.519,0.527]</t>
+  </si>
+  <si>
+    <t>0.581 [0.571,0.592]</t>
   </si>
   <si>
     <t>Number of Individuals</t>
@@ -298,7 +298,7 @@
     <t>Additional Sample/Cohort Information</t>
   </si>
   <si>
-    <t>{'mean': '54.3', 'unit': 'years'}</t>
+    <t>mean:54.3;range:[50.1,58.4];unit:years</t>
   </si>
   <si>
     <t>European</t>
@@ -313,7 +313,7 @@
     <t>Prevalent and incident Ischaemic stroke</t>
   </si>
   <si>
-    <t>{'mean': '6.2', 'sd': 1.7, 'unit': 'years'}</t>
+    <t>mean:6.2;sd:1.7;unit:years</t>
   </si>
   <si>
     <t>ABC, DEF, GHIJ</t>

--- a/tests/output/all_metadata/pgs_all_metadata.xlsx
+++ b/tests/output/all_metadata/pgs_all_metadata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="161">
   <si>
     <t>PGS Catalog version</t>
   </si>
@@ -79,6 +79,15 @@
     <t>Score and results match the original publication</t>
   </si>
   <si>
+    <t>Ancestry Distribution (%) - Source of Variant Associations (GWAS)</t>
+  </si>
+  <si>
+    <t>Ancestry Distribution (%) - Score Development/Training</t>
+  </si>
+  <si>
+    <t>Ancestry Distribution (%) - PGS Evaluation</t>
+  </si>
+  <si>
     <t>FTP link</t>
   </si>
   <si>
@@ -118,7 +127,7 @@
     <t>estrogen-receptor positive breast cancer</t>
   </si>
   <si>
-    <t>stroke, Ischemic stroke</t>
+    <t>stroke|Ischemic stroke</t>
   </si>
   <si>
     <t>EFO_0000305</t>
@@ -127,7 +136,7 @@
     <t>EFO_1000649</t>
   </si>
   <si>
-    <t>EFO_0000712, HP_0002140</t>
+    <t>EFO_0000712|HP_0002140</t>
   </si>
   <si>
     <t>SNPs passing genome-wide significance</t>
@@ -160,6 +169,21 @@
     <t>10.1010/test/test2</t>
   </si>
   <si>
+    <t>Multi-ancestry (including European):100</t>
+  </si>
+  <si>
+    <t>European:100</t>
+  </si>
+  <si>
+    <t>European:75.3|South Asian:13.6|East Asian:6|Hispanic or Latin American:2.2|African:1.7|Greater Middle Eastern:1.2</t>
+  </si>
+  <si>
+    <t>European:66.7|Multi-ancestry (including European):33.3</t>
+  </si>
+  <si>
+    <t>European:42.5|East Asian:20|African:12.5|Hispanic or Latin American:12.5|South Asian:10|Additional Asian Ancestries:2.5</t>
+  </si>
+  <si>
     <t>http://ftp.ebi.ac.uk/pub/databases/spot/pgs/scores/PGS1/ScoringFiles/PGS1.txt.gz</t>
   </si>
   <si>
@@ -316,10 +340,10 @@
     <t>mean:6.2;sd:1.7;unit:years</t>
   </si>
   <si>
-    <t>ABC, DEF, GHIJ</t>
-  </si>
-  <si>
-    <t>ABC, DEF, KLMN</t>
+    <t>ABC|DEF|GHIJ</t>
+  </si>
+  <si>
+    <t>ABC|DEF|KLMN</t>
   </si>
   <si>
     <t>UKB</t>
@@ -894,13 +918,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -949,31 +973,40 @@
       <c r="P1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I2">
         <v>100</v>
@@ -982,48 +1015,57 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="L2">
         <v>10000001</v>
       </c>
       <c r="M2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N2" t="b">
         <v>1</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>46</v>
+      <c r="O2" t="s">
+        <v>49</v>
       </c>
       <c r="P2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+        <v>50</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>52</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I3">
         <v>100</v>
@@ -1032,48 +1074,54 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="L3">
         <v>10000001</v>
       </c>
       <c r="M3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N3" t="b">
         <v>1</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="P3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="O3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I4">
         <v>3200000</v>
@@ -1082,29 +1130,38 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="L4">
         <v>10000002</v>
       </c>
       <c r="M4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="N4" t="b">
         <v>1</v>
       </c>
-      <c r="O4" s="2" t="s">
-        <v>48</v>
+      <c r="O4" t="s">
+        <v>51</v>
       </c>
       <c r="P4" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S4" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1"/>
-    <hyperlink ref="O3" r:id="rId2"/>
-    <hyperlink ref="O4" r:id="rId3"/>
+    <hyperlink ref="R2" r:id="rId1"/>
+    <hyperlink ref="R3" r:id="rId2"/>
+    <hyperlink ref="R4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1120,13 +1177,13 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>15</v>
@@ -1135,10 +1192,10 @@
         <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>16</v>
@@ -1147,112 +1204,112 @@
         <v>17</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="H2">
         <v>10000001</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="N2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="H3">
         <v>10000001</v>
       </c>
       <c r="I3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K3" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="H4">
         <v>10000002</v>
       </c>
       <c r="I4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J4" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="N4" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1270,63 +1327,63 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2">
         <v>61055</v>
@@ -1338,27 +1395,27 @@
         <v>30382</v>
       </c>
       <c r="H2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="J2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="L2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="P2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="Q2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3">
         <v>51925</v>
@@ -1370,27 +1427,27 @@
         <v>31560</v>
       </c>
       <c r="H3" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="J3" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="L3" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="P3" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="Q3" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4">
         <v>397390</v>
@@ -1405,25 +1462,25 @@
         <v>45.4</v>
       </c>
       <c r="G4" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="H4" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="J4" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="L4" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="M4" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="P4" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="Q4" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1444,176 +1501,176 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C2">
         <v>1234</v>
       </c>
       <c r="H2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="N2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="O2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C3">
         <v>1234</v>
       </c>
       <c r="H3" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="I3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J3" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="N3" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="O3" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C4">
         <v>230000</v>
       </c>
       <c r="H4" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J4" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="L4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N4" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="O4" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="Q4" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C5">
         <v>250000</v>
       </c>
       <c r="H5" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J5" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="L5" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="N5" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="O5" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="Q5" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C6">
         <v>11000</v>
@@ -1625,19 +1682,19 @@
         <v>10150</v>
       </c>
       <c r="H6" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="J6" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="L6" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="P6" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="Q6" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1655,51 +1712,51 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="F2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H2">
         <v>10000001</v>
@@ -1707,25 +1764,25 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C3" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D3" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="E3" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="F3" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H3">
         <v>10000002</v>
@@ -1746,69 +1803,69 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
       <c r="C2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
         <v>34</v>
       </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
       <c r="C3" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="C4" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/tests/output/all_metadata/pgs_all_metadata.xlsx
+++ b/tests/output/all_metadata/pgs_all_metadata.xlsx
@@ -8,19 +8,20 @@
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="1" r:id="rId1"/>
-    <sheet name="Scores" sheetId="2" r:id="rId2"/>
-    <sheet name="Performance Metrics" sheetId="3" r:id="rId3"/>
-    <sheet name="Evaluation Sample Sets" sheetId="4" r:id="rId4"/>
-    <sheet name="Score Development Samples" sheetId="5" r:id="rId5"/>
-    <sheet name="Publications" sheetId="6" r:id="rId6"/>
-    <sheet name="EFO Traits" sheetId="7" r:id="rId7"/>
+    <sheet name="Publications" sheetId="2" r:id="rId2"/>
+    <sheet name="EFO Traits" sheetId="3" r:id="rId3"/>
+    <sheet name="Scores" sheetId="4" r:id="rId4"/>
+    <sheet name="Cohorts" sheetId="5" r:id="rId5"/>
+    <sheet name="Score Development Samples" sheetId="6" r:id="rId6"/>
+    <sheet name="Performance Metrics" sheetId="7" r:id="rId7"/>
+    <sheet name="Evaluation Sample Sets" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="172">
   <si>
     <t>PGS Catalog version</t>
   </si>
@@ -37,6 +38,129 @@
     <t>2020-12-15</t>
   </si>
   <si>
+    <t>PGS Publication/Study (PGP) ID</t>
+  </si>
+  <si>
+    <t>First Author</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Journal Name</t>
+  </si>
+  <si>
+    <t>Publication Date</t>
+  </si>
+  <si>
+    <t>Authors</t>
+  </si>
+  <si>
+    <t>digital object identifier (doi)</t>
+  </si>
+  <si>
+    <t>PubMed ID (PMID)</t>
+  </si>
+  <si>
+    <t>PGP1</t>
+  </si>
+  <si>
+    <t>PGP2</t>
+  </si>
+  <si>
+    <t>First T</t>
+  </si>
+  <si>
+    <t>Second T</t>
+  </si>
+  <si>
+    <t>Test publication 1.</t>
+  </si>
+  <si>
+    <t>Test publication 2</t>
+  </si>
+  <si>
+    <t>Test Journal</t>
+  </si>
+  <si>
+    <t>Test Journal v2</t>
+  </si>
+  <si>
+    <t>2020-12-01</t>
+  </si>
+  <si>
+    <t>2019-10-01</t>
+  </si>
+  <si>
+    <t>First T, Other A, Other B</t>
+  </si>
+  <si>
+    <t>Second T, Other C, Other D, Other E</t>
+  </si>
+  <si>
+    <t>10.1010/test/test1</t>
+  </si>
+  <si>
+    <t>10.1010/test/test2</t>
+  </si>
+  <si>
+    <t>Ontology Trait ID</t>
+  </si>
+  <si>
+    <t>Ontology Trait Label</t>
+  </si>
+  <si>
+    <t>Ontology Trait Description</t>
+  </si>
+  <si>
+    <t>Ontology URL</t>
+  </si>
+  <si>
+    <t>EFO_0000305</t>
+  </si>
+  <si>
+    <t>EFO_1000649</t>
+  </si>
+  <si>
+    <t>EFO_0000712</t>
+  </si>
+  <si>
+    <t>HP_0002140</t>
+  </si>
+  <si>
+    <t>breast carcinoma</t>
+  </si>
+  <si>
+    <t>estrogen-receptor positive breast cancer</t>
+  </si>
+  <si>
+    <t>stroke</t>
+  </si>
+  <si>
+    <t>Ischemic stroke</t>
+  </si>
+  <si>
+    <t>A carcinoma that arises from epithelial cells of the breast [MONDO: DesignPattern]</t>
+  </si>
+  <si>
+    <t>A subtype of breast cancer that is estrogen-receptor positive [EFO: 1000649]</t>
+  </si>
+  <si>
+    <t>A sudden loss of neurological function secondary to hemorrhage or ischemia in the brain parenchyma due to a vascular event. [NCIT: C3390]</t>
+  </si>
+  <si>
+    <t>http://www.ebi.ac.uk/efo/EFO_0000305</t>
+  </si>
+  <si>
+    <t>http://www.ebi.ac.uk/efo/EFO_1000649</t>
+  </si>
+  <si>
+    <t>http://www.ebi.ac.uk/efo/EFO_0000712</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/ols/ontologies/efo/terms?iri=http://purl.obolibrary.org/obo/HP_0002140</t>
+  </si>
+  <si>
     <t>Polygenic Score (PGS) ID</t>
   </si>
   <si>
@@ -121,21 +245,9 @@
     <t>Ischaemic stroke</t>
   </si>
   <si>
-    <t>breast carcinoma</t>
-  </si>
-  <si>
-    <t>estrogen-receptor positive breast cancer</t>
-  </si>
-  <si>
     <t>stroke|Ischemic stroke</t>
   </si>
   <si>
-    <t>EFO_0000305</t>
-  </si>
-  <si>
-    <t>EFO_1000649</t>
-  </si>
-  <si>
     <t>EFO_0000712|HP_0002140</t>
   </si>
   <si>
@@ -157,18 +269,6 @@
     <t>hg19</t>
   </si>
   <si>
-    <t>PGP1</t>
-  </si>
-  <si>
-    <t>PGP2</t>
-  </si>
-  <si>
-    <t>10.1010/test/test1</t>
-  </si>
-  <si>
-    <t>10.1010/test/test2</t>
-  </si>
-  <si>
     <t>Multi-ancestry (including European):100</t>
   </si>
   <si>
@@ -196,6 +296,144 @@
     <t>PGS obtained from the Catalog should be cited appropriately, and used in accordance with any licensing restrictions set by the authors. See EBI Terms of Use (https://www.ebi.ac.uk/about/terms-of-use/) for additional details.</t>
   </si>
   <si>
+    <t>Cohort ID</t>
+  </si>
+  <si>
+    <t>Cohort Name</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>DEF</t>
+  </si>
+  <si>
+    <t>GHIJ</t>
+  </si>
+  <si>
+    <t>KLMN</t>
+  </si>
+  <si>
+    <t>UKB</t>
+  </si>
+  <si>
+    <t>Cohort ABC</t>
+  </si>
+  <si>
+    <t>Cohort DEF</t>
+  </si>
+  <si>
+    <t>Cohort GHIJ</t>
+  </si>
+  <si>
+    <t>Cohort KLMN</t>
+  </si>
+  <si>
+    <t>UK Biobank</t>
+  </si>
+  <si>
+    <t>Stage of PGS Development</t>
+  </si>
+  <si>
+    <t>Number of Individuals</t>
+  </si>
+  <si>
+    <t>Number of Cases</t>
+  </si>
+  <si>
+    <t>Number of Controls</t>
+  </si>
+  <si>
+    <t>Percent of Participants Who are Male</t>
+  </si>
+  <si>
+    <t>Sample Age</t>
+  </si>
+  <si>
+    <t>Broad Ancestry Category</t>
+  </si>
+  <si>
+    <t>Ancestry (e.g. French, Chinese)</t>
+  </si>
+  <si>
+    <t>Country of Recruitment</t>
+  </si>
+  <si>
+    <t>Additional Ancestry Description</t>
+  </si>
+  <si>
+    <t>Phenotype Definitions and Methods</t>
+  </si>
+  <si>
+    <t>Followup Time</t>
+  </si>
+  <si>
+    <t>GWAS Catalog Study ID (GCST...)</t>
+  </si>
+  <si>
+    <t>Source PubMed ID (PMID) or doi</t>
+  </si>
+  <si>
+    <t>Cohort(s)</t>
+  </si>
+  <si>
+    <t>Additional Sample/Cohort Information</t>
+  </si>
+  <si>
+    <t>Source of Variant Associations (GWAS)</t>
+  </si>
+  <si>
+    <t>Score Development/Training</t>
+  </si>
+  <si>
+    <t>European</t>
+  </si>
+  <si>
+    <t>Finland, Sweden, U.S., Australia, Netherlands, Germany, U.K.</t>
+  </si>
+  <si>
+    <t>Canada, U.S., Australia, Austria, Belgium, France, Germany, Netherlands, Switzerland, Poland, Denmark, Finland, Iceland, Norway, Sweden, U.K., Italy, Spain, NR</t>
+  </si>
+  <si>
+    <t>Canada, U.S., Australia, Austria, Belgium, France, Germany, Netherlands, Switzerland, Poland, Denmark, Finland, Iceland, Sweden, U.K., Italy, Spain, NR</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>Any stroke</t>
+  </si>
+  <si>
+    <t>Prevalent and incident Ischaemic stroke; defined in http://biobank.ndph.ox.ac.uk/showcase/docs/alg_outcome_stroke.pdf</t>
+  </si>
+  <si>
+    <t>GCST1</t>
+  </si>
+  <si>
+    <t>GCST2</t>
+  </si>
+  <si>
+    <t>GCST3</t>
+  </si>
+  <si>
+    <t>10000011</t>
+  </si>
+  <si>
+    <t>10000012</t>
+  </si>
+  <si>
+    <t>10000013</t>
+  </si>
+  <si>
+    <t>name: IS</t>
+  </si>
+  <si>
+    <t>name: AS</t>
+  </si>
+  <si>
+    <t>Tuning set</t>
+  </si>
+  <si>
     <t>PGS Performance Metric (PPM) ID</t>
   </si>
   <si>
@@ -277,63 +515,12 @@
     <t>0.581 [0.571,0.592]</t>
   </si>
   <si>
-    <t>Number of Individuals</t>
-  </si>
-  <si>
-    <t>Number of Cases</t>
-  </si>
-  <si>
-    <t>Number of Controls</t>
-  </si>
-  <si>
-    <t>Percent of Participants Who are Male</t>
-  </si>
-  <si>
-    <t>Sample Age</t>
-  </si>
-  <si>
-    <t>Broad Ancestry Category</t>
-  </si>
-  <si>
-    <t>Ancestry (e.g. French, Chinese)</t>
-  </si>
-  <si>
-    <t>Country of Recruitment</t>
-  </si>
-  <si>
-    <t>Additional Ancestry Description</t>
-  </si>
-  <si>
-    <t>Phenotype Definitions and Methods</t>
-  </si>
-  <si>
-    <t>Followup Time</t>
-  </si>
-  <si>
-    <t>GWAS Catalog Study ID (GCST...)</t>
-  </si>
-  <si>
-    <t>Source PubMed ID (PMID) or doi</t>
-  </si>
-  <si>
-    <t>Cohort(s)</t>
-  </si>
-  <si>
-    <t>Additional Sample/Cohort Information</t>
-  </si>
-  <si>
     <t>mean:54.3;range:[50.1,58.4];unit:years</t>
   </si>
   <si>
-    <t>European</t>
-  </si>
-  <si>
     <t>Australia, Belarus, Belgium, Canada, Denmark, Finland, France, Germany, Greece, Ireland, Netherlands, Norway, Poland, Sweden, UK, USA</t>
   </si>
   <si>
-    <t>UK</t>
-  </si>
-  <si>
     <t>Prevalent and incident Ischaemic stroke</t>
   </si>
   <si>
@@ -346,163 +533,10 @@
     <t>ABC|DEF|KLMN</t>
   </si>
   <si>
-    <t>UKB</t>
-  </si>
-  <si>
     <t>iCOGS</t>
   </si>
   <si>
     <t>Validation set</t>
-  </si>
-  <si>
-    <t>Stage of PGS Development</t>
-  </si>
-  <si>
-    <t>Source of Variant Associations (GWAS)</t>
-  </si>
-  <si>
-    <t>Score Development/Training</t>
-  </si>
-  <si>
-    <t>Finland, Sweden, U.S., Australia, Netherlands, Germany, U.K.</t>
-  </si>
-  <si>
-    <t>Canada, U.S., Australia, Austria, Belgium, France, Germany, Netherlands, Switzerland, Poland, Denmark, Finland, Iceland, Norway, Sweden, U.K., Italy, Spain, NR</t>
-  </si>
-  <si>
-    <t>Canada, U.S., Australia, Austria, Belgium, France, Germany, Netherlands, Switzerland, Poland, Denmark, Finland, Iceland, Sweden, U.K., Italy, Spain, NR</t>
-  </si>
-  <si>
-    <t>Any stroke</t>
-  </si>
-  <si>
-    <t>Prevalent and incident Ischaemic stroke; defined in http://biobank.ndph.ox.ac.uk/showcase/docs/alg_outcome_stroke.pdf</t>
-  </si>
-  <si>
-    <t>GCST1</t>
-  </si>
-  <si>
-    <t>GCST2</t>
-  </si>
-  <si>
-    <t>GCST3</t>
-  </si>
-  <si>
-    <t>10000011</t>
-  </si>
-  <si>
-    <t>10000012</t>
-  </si>
-  <si>
-    <t>10000013</t>
-  </si>
-  <si>
-    <t>name: IS</t>
-  </si>
-  <si>
-    <t>name: AS</t>
-  </si>
-  <si>
-    <t>Tuning set</t>
-  </si>
-  <si>
-    <t>PGS Publication/Study (PGP) ID</t>
-  </si>
-  <si>
-    <t>First Author</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Journal Name</t>
-  </si>
-  <si>
-    <t>Publication Date</t>
-  </si>
-  <si>
-    <t>Authors</t>
-  </si>
-  <si>
-    <t>digital object identifier (doi)</t>
-  </si>
-  <si>
-    <t>PubMed ID (PMID)</t>
-  </si>
-  <si>
-    <t>First T</t>
-  </si>
-  <si>
-    <t>Second T</t>
-  </si>
-  <si>
-    <t>Test publication 1.</t>
-  </si>
-  <si>
-    <t>Test publication 2</t>
-  </si>
-  <si>
-    <t>Test Journal</t>
-  </si>
-  <si>
-    <t>Test Journal v2</t>
-  </si>
-  <si>
-    <t>2020-12-01</t>
-  </si>
-  <si>
-    <t>2019-10-01</t>
-  </si>
-  <si>
-    <t>First T, Other A, Other B</t>
-  </si>
-  <si>
-    <t>Second T, Other C, Other D, Other E</t>
-  </si>
-  <si>
-    <t>Ontology Trait ID</t>
-  </si>
-  <si>
-    <t>Ontology Trait Label</t>
-  </si>
-  <si>
-    <t>Ontology Trait Description</t>
-  </si>
-  <si>
-    <t>Ontology URL</t>
-  </si>
-  <si>
-    <t>EFO_0000712</t>
-  </si>
-  <si>
-    <t>HP_0002140</t>
-  </si>
-  <si>
-    <t>stroke</t>
-  </si>
-  <si>
-    <t>Ischemic stroke</t>
-  </si>
-  <si>
-    <t>A carcinoma that arises from epithelial cells of the breast [MONDO: DesignPattern]</t>
-  </si>
-  <si>
-    <t>A subtype of breast cancer that is estrogen-receptor positive [EFO: 1000649]</t>
-  </si>
-  <si>
-    <t>A sudden loss of neurological function secondary to hemorrhage or ischemia in the brain parenchyma due to a vascular event. [NCIT: C3390]</t>
-  </si>
-  <si>
-    <t>http://www.ebi.ac.uk/efo/EFO_0000305</t>
-  </si>
-  <si>
-    <t>http://www.ebi.ac.uk/efo/EFO_1000649</t>
-  </si>
-  <si>
-    <t>http://www.ebi.ac.uk/efo/EFO_0000712</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/ols/ontologies/efo/terms?iri=http://purl.obolibrary.org/obo/HP_0002140</t>
   </si>
 </sst>
 </file>
@@ -918,6 +952,183 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2">
+        <v>10000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3">
+        <v>10000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -926,87 +1137,87 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="I2">
         <v>100</v>
@@ -1015,57 +1226,57 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="L2">
         <v>10000001</v>
       </c>
       <c r="M2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="N2" t="b">
         <v>1</v>
       </c>
       <c r="O2" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="Q2" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="S2" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="H3" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="I3">
         <v>100</v>
@@ -1074,54 +1285,54 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="L3">
         <v>10000001</v>
       </c>
       <c r="M3" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="N3" t="b">
         <v>1</v>
       </c>
       <c r="O3" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="Q3" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="S3" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="H4" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="I4">
         <v>3200000</v>
@@ -1130,31 +1341,31 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="L4">
         <v>10000002</v>
       </c>
       <c r="M4" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="N4" t="b">
         <v>1</v>
       </c>
       <c r="O4" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="Q4" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="S4" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1167,7 +1378,282 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2">
+        <v>1234</v>
+      </c>
+      <c r="H2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N2" t="s">
+        <v>128</v>
+      </c>
+      <c r="O2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3">
+        <v>1234</v>
+      </c>
+      <c r="H3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J3" t="s">
+        <v>122</v>
+      </c>
+      <c r="N3" t="s">
+        <v>128</v>
+      </c>
+      <c r="O3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4">
+        <v>230000</v>
+      </c>
+      <c r="H4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L4" t="s">
+        <v>73</v>
+      </c>
+      <c r="N4" t="s">
+        <v>129</v>
+      </c>
+      <c r="O4" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5">
+        <v>250000</v>
+      </c>
+      <c r="H5" t="s">
+        <v>121</v>
+      </c>
+      <c r="I5" t="s">
+        <v>80</v>
+      </c>
+      <c r="J5" t="s">
+        <v>124</v>
+      </c>
+      <c r="L5" t="s">
+        <v>126</v>
+      </c>
+      <c r="N5" t="s">
+        <v>130</v>
+      </c>
+      <c r="O5" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6">
+        <v>11000</v>
+      </c>
+      <c r="D6">
+        <v>850</v>
+      </c>
+      <c r="E6">
+        <v>10150</v>
+      </c>
+      <c r="H6" t="s">
+        <v>121</v>
+      </c>
+      <c r="J6" t="s">
+        <v>125</v>
+      </c>
+      <c r="L6" t="s">
+        <v>127</v>
+      </c>
+      <c r="P6" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O4"/>
   <sheetViews>
@@ -1177,139 +1663,139 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>66</v>
+        <v>145</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>67</v>
+        <v>146</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>68</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>148</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>151</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="H2">
         <v>10000001</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>81</v>
+        <v>160</v>
       </c>
       <c r="N2" t="s">
-        <v>83</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>149</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>152</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="H3">
         <v>10000001</v>
       </c>
       <c r="I3" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>82</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>150</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="F4" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="G4" t="s">
-        <v>79</v>
+        <v>158</v>
       </c>
       <c r="H4">
         <v>10000002</v>
       </c>
       <c r="I4" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="J4" t="s">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="N4" t="s">
-        <v>84</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -1317,7 +1803,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q4"/>
   <sheetViews>
@@ -1327,63 +1813,63 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>139</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>151</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="C2">
         <v>61055</v>
@@ -1395,27 +1881,27 @@
         <v>30382</v>
       </c>
       <c r="H2" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="J2" t="s">
-        <v>102</v>
+        <v>165</v>
       </c>
       <c r="L2" t="s">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="P2" t="s">
-        <v>106</v>
+        <v>168</v>
       </c>
       <c r="Q2" t="s">
-        <v>109</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>152</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="C3">
         <v>51925</v>
@@ -1427,27 +1913,27 @@
         <v>31560</v>
       </c>
       <c r="H3" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="J3" t="s">
-        <v>102</v>
+        <v>165</v>
       </c>
       <c r="L3" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="P3" t="s">
-        <v>107</v>
+        <v>169</v>
       </c>
       <c r="Q3" t="s">
-        <v>109</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="C4">
         <v>397390</v>
@@ -1462,419 +1948,28 @@
         <v>45.4</v>
       </c>
       <c r="G4" t="s">
-        <v>100</v>
+        <v>164</v>
       </c>
       <c r="H4" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="J4" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="L4" t="s">
-        <v>104</v>
+        <v>166</v>
       </c>
       <c r="M4" t="s">
-        <v>105</v>
+        <v>167</v>
       </c>
       <c r="P4" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="Q4" t="s">
-        <v>110</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2">
-        <v>1234</v>
-      </c>
-      <c r="H2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" t="s">
-        <v>114</v>
-      </c>
-      <c r="N2" t="s">
-        <v>119</v>
-      </c>
-      <c r="O2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3">
-        <v>1234</v>
-      </c>
-      <c r="H3" t="s">
-        <v>101</v>
-      </c>
-      <c r="I3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" t="s">
-        <v>114</v>
-      </c>
-      <c r="N3" t="s">
-        <v>119</v>
-      </c>
-      <c r="O3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4">
-        <v>230000</v>
-      </c>
-      <c r="H4" t="s">
-        <v>101</v>
-      </c>
-      <c r="I4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" t="s">
-        <v>115</v>
-      </c>
-      <c r="L4" t="s">
-        <v>32</v>
-      </c>
-      <c r="N4" t="s">
-        <v>120</v>
-      </c>
-      <c r="O4" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5">
-        <v>250000</v>
-      </c>
-      <c r="H5" t="s">
-        <v>101</v>
-      </c>
-      <c r="I5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" t="s">
-        <v>116</v>
-      </c>
-      <c r="L5" t="s">
-        <v>117</v>
-      </c>
-      <c r="N5" t="s">
-        <v>121</v>
-      </c>
-      <c r="O5" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C6">
-        <v>11000</v>
-      </c>
-      <c r="D6">
-        <v>850</v>
-      </c>
-      <c r="E6">
-        <v>10150</v>
-      </c>
-      <c r="H6" t="s">
-        <v>101</v>
-      </c>
-      <c r="J6" t="s">
-        <v>103</v>
-      </c>
-      <c r="L6" t="s">
-        <v>118</v>
-      </c>
-      <c r="P6" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2">
-        <v>10000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F3" t="s">
-        <v>145</v>
-      </c>
-      <c r="G3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3">
-        <v>10000002</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>151</v>
-      </c>
-      <c r="B5" t="s">
-        <v>153</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/tests/output/all_metadata/pgs_all_metadata.xlsx
+++ b/tests/output/all_metadata/pgs_all_metadata.xlsx
@@ -11,10 +11,10 @@
     <sheet name="Publications" sheetId="2" r:id="rId2"/>
     <sheet name="EFO Traits" sheetId="3" r:id="rId3"/>
     <sheet name="Scores" sheetId="4" r:id="rId4"/>
-    <sheet name="Cohorts" sheetId="5" r:id="rId5"/>
-    <sheet name="Score Development Samples" sheetId="6" r:id="rId6"/>
-    <sheet name="Performance Metrics" sheetId="7" r:id="rId7"/>
-    <sheet name="Evaluation Sample Sets" sheetId="8" r:id="rId8"/>
+    <sheet name="Score Development Samples" sheetId="5" r:id="rId5"/>
+    <sheet name="Performance Metrics" sheetId="6" r:id="rId6"/>
+    <sheet name="Evaluation Sample Sets" sheetId="7" r:id="rId7"/>
+    <sheet name="Cohorts" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -296,6 +296,216 @@
     <t>PGS obtained from the Catalog should be cited appropriately, and used in accordance with any licensing restrictions set by the authors. See EBI Terms of Use (https://www.ebi.ac.uk/about/terms-of-use/) for additional details.</t>
   </si>
   <si>
+    <t>Stage of PGS Development</t>
+  </si>
+  <si>
+    <t>Number of Individuals</t>
+  </si>
+  <si>
+    <t>Number of Cases</t>
+  </si>
+  <si>
+    <t>Number of Controls</t>
+  </si>
+  <si>
+    <t>Percent of Participants Who are Male</t>
+  </si>
+  <si>
+    <t>Sample Age</t>
+  </si>
+  <si>
+    <t>Broad Ancestry Category</t>
+  </si>
+  <si>
+    <t>Ancestry (e.g. French, Chinese)</t>
+  </si>
+  <si>
+    <t>Country of Recruitment</t>
+  </si>
+  <si>
+    <t>Additional Ancestry Description</t>
+  </si>
+  <si>
+    <t>Phenotype Definitions and Methods</t>
+  </si>
+  <si>
+    <t>Followup Time</t>
+  </si>
+  <si>
+    <t>GWAS Catalog Study ID (GCST...)</t>
+  </si>
+  <si>
+    <t>Source PubMed ID (PMID) or doi</t>
+  </si>
+  <si>
+    <t>Cohort(s)</t>
+  </si>
+  <si>
+    <t>Additional Sample/Cohort Information</t>
+  </si>
+  <si>
+    <t>Source of Variant Associations (GWAS)</t>
+  </si>
+  <si>
+    <t>Score Development/Training</t>
+  </si>
+  <si>
+    <t>European</t>
+  </si>
+  <si>
+    <t>Finland, Sweden, U.S., Australia, Netherlands, Germany, U.K.</t>
+  </si>
+  <si>
+    <t>Canada, U.S., Australia, Austria, Belgium, France, Germany, Netherlands, Switzerland, Poland, Denmark, Finland, Iceland, Norway, Sweden, U.K., Italy, Spain, NR</t>
+  </si>
+  <si>
+    <t>Canada, U.S., Australia, Austria, Belgium, France, Germany, Netherlands, Switzerland, Poland, Denmark, Finland, Iceland, Sweden, U.K., Italy, Spain, NR</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>Any stroke</t>
+  </si>
+  <si>
+    <t>Prevalent and incident Ischaemic stroke; defined in http://biobank.ndph.ox.ac.uk/showcase/docs/alg_outcome_stroke.pdf</t>
+  </si>
+  <si>
+    <t>GCST1</t>
+  </si>
+  <si>
+    <t>GCST2</t>
+  </si>
+  <si>
+    <t>GCST3</t>
+  </si>
+  <si>
+    <t>10000011</t>
+  </si>
+  <si>
+    <t>10000012</t>
+  </si>
+  <si>
+    <t>10000013</t>
+  </si>
+  <si>
+    <t>UKB</t>
+  </si>
+  <si>
+    <t>name: IS</t>
+  </si>
+  <si>
+    <t>name: AS</t>
+  </si>
+  <si>
+    <t>Tuning set</t>
+  </si>
+  <si>
+    <t>PGS Performance Metric (PPM) ID</t>
+  </si>
+  <si>
+    <t>Evaluated Score</t>
+  </si>
+  <si>
+    <t>PGS Sample Set (PSS)</t>
+  </si>
+  <si>
+    <t>Covariates Included in the Model</t>
+  </si>
+  <si>
+    <t>PGS Performance: Other Relevant Information</t>
+  </si>
+  <si>
+    <t>Hazard Ratio (HR)</t>
+  </si>
+  <si>
+    <t>Odds Ratio (OR)</t>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
+    <t>Area Under the Receiver-Operating Characteristic Curve (AUROC)</t>
+  </si>
+  <si>
+    <t>Corcordance Statistic (C-index)</t>
+  </si>
+  <si>
+    <t>Other Metric(s)</t>
+  </si>
+  <si>
+    <t>PPM1</t>
+  </si>
+  <si>
+    <t>PPM02</t>
+  </si>
+  <si>
+    <t>PPM3</t>
+  </si>
+  <si>
+    <t>PSS1</t>
+  </si>
+  <si>
+    <t>PSS2</t>
+  </si>
+  <si>
+    <t>PSS3</t>
+  </si>
+  <si>
+    <t>All breast cancer</t>
+  </si>
+  <si>
+    <t>ER-positive breast cancer</t>
+  </si>
+  <si>
+    <t>Ischaemic stroke before age 75</t>
+  </si>
+  <si>
+    <t>Sex, genotyping chip</t>
+  </si>
+  <si>
+    <t>Extra comment for test</t>
+  </si>
+  <si>
+    <t>1.24 [1.2,1.29]</t>
+  </si>
+  <si>
+    <t>1.53 [1.5,1.56]</t>
+  </si>
+  <si>
+    <t>1.64 [1.6,1.68]</t>
+  </si>
+  <si>
+    <t>0.522 [0.519,0.527]</t>
+  </si>
+  <si>
+    <t>0.581 [0.571,0.592]</t>
+  </si>
+  <si>
+    <t>mean:54.3;range:[50.1,58.4];unit:years</t>
+  </si>
+  <si>
+    <t>Australia, Belarus, Belgium, Canada, Denmark, Finland, France, Germany, Greece, Ireland, Netherlands, Norway, Poland, Sweden, UK, USA</t>
+  </si>
+  <si>
+    <t>Prevalent and incident Ischaemic stroke</t>
+  </si>
+  <si>
+    <t>mean:6.2;sd:1.7;unit:years</t>
+  </si>
+  <si>
+    <t>ABC|DEF|GHIJ</t>
+  </si>
+  <si>
+    <t>ABC|DEF|KLMN</t>
+  </si>
+  <si>
+    <t>iCOGS</t>
+  </si>
+  <si>
+    <t>Validation set</t>
+  </si>
+  <si>
     <t>Cohort ID</t>
   </si>
   <si>
@@ -314,9 +524,6 @@
     <t>KLMN</t>
   </si>
   <si>
-    <t>UKB</t>
-  </si>
-  <si>
     <t>Cohort ABC</t>
   </si>
   <si>
@@ -330,213 +537,6 @@
   </si>
   <si>
     <t>UK Biobank</t>
-  </si>
-  <si>
-    <t>Stage of PGS Development</t>
-  </si>
-  <si>
-    <t>Number of Individuals</t>
-  </si>
-  <si>
-    <t>Number of Cases</t>
-  </si>
-  <si>
-    <t>Number of Controls</t>
-  </si>
-  <si>
-    <t>Percent of Participants Who are Male</t>
-  </si>
-  <si>
-    <t>Sample Age</t>
-  </si>
-  <si>
-    <t>Broad Ancestry Category</t>
-  </si>
-  <si>
-    <t>Ancestry (e.g. French, Chinese)</t>
-  </si>
-  <si>
-    <t>Country of Recruitment</t>
-  </si>
-  <si>
-    <t>Additional Ancestry Description</t>
-  </si>
-  <si>
-    <t>Phenotype Definitions and Methods</t>
-  </si>
-  <si>
-    <t>Followup Time</t>
-  </si>
-  <si>
-    <t>GWAS Catalog Study ID (GCST...)</t>
-  </si>
-  <si>
-    <t>Source PubMed ID (PMID) or doi</t>
-  </si>
-  <si>
-    <t>Cohort(s)</t>
-  </si>
-  <si>
-    <t>Additional Sample/Cohort Information</t>
-  </si>
-  <si>
-    <t>Source of Variant Associations (GWAS)</t>
-  </si>
-  <si>
-    <t>Score Development/Training</t>
-  </si>
-  <si>
-    <t>European</t>
-  </si>
-  <si>
-    <t>Finland, Sweden, U.S., Australia, Netherlands, Germany, U.K.</t>
-  </si>
-  <si>
-    <t>Canada, U.S., Australia, Austria, Belgium, France, Germany, Netherlands, Switzerland, Poland, Denmark, Finland, Iceland, Norway, Sweden, U.K., Italy, Spain, NR</t>
-  </si>
-  <si>
-    <t>Canada, U.S., Australia, Austria, Belgium, France, Germany, Netherlands, Switzerland, Poland, Denmark, Finland, Iceland, Sweden, U.K., Italy, Spain, NR</t>
-  </si>
-  <si>
-    <t>UK</t>
-  </si>
-  <si>
-    <t>Any stroke</t>
-  </si>
-  <si>
-    <t>Prevalent and incident Ischaemic stroke; defined in http://biobank.ndph.ox.ac.uk/showcase/docs/alg_outcome_stroke.pdf</t>
-  </si>
-  <si>
-    <t>GCST1</t>
-  </si>
-  <si>
-    <t>GCST2</t>
-  </si>
-  <si>
-    <t>GCST3</t>
-  </si>
-  <si>
-    <t>10000011</t>
-  </si>
-  <si>
-    <t>10000012</t>
-  </si>
-  <si>
-    <t>10000013</t>
-  </si>
-  <si>
-    <t>name: IS</t>
-  </si>
-  <si>
-    <t>name: AS</t>
-  </si>
-  <si>
-    <t>Tuning set</t>
-  </si>
-  <si>
-    <t>PGS Performance Metric (PPM) ID</t>
-  </si>
-  <si>
-    <t>Evaluated Score</t>
-  </si>
-  <si>
-    <t>PGS Sample Set (PSS)</t>
-  </si>
-  <si>
-    <t>Covariates Included in the Model</t>
-  </si>
-  <si>
-    <t>PGS Performance: Other Relevant Information</t>
-  </si>
-  <si>
-    <t>Hazard Ratio (HR)</t>
-  </si>
-  <si>
-    <t>Odds Ratio (OR)</t>
-  </si>
-  <si>
-    <t>Beta</t>
-  </si>
-  <si>
-    <t>Area Under the Receiver-Operating Characteristic Curve (AUROC)</t>
-  </si>
-  <si>
-    <t>Corcordance Statistic (C-index)</t>
-  </si>
-  <si>
-    <t>Other Metric(s)</t>
-  </si>
-  <si>
-    <t>PPM1</t>
-  </si>
-  <si>
-    <t>PPM02</t>
-  </si>
-  <si>
-    <t>PPM3</t>
-  </si>
-  <si>
-    <t>PSS1</t>
-  </si>
-  <si>
-    <t>PSS2</t>
-  </si>
-  <si>
-    <t>PSS3</t>
-  </si>
-  <si>
-    <t>All breast cancer</t>
-  </si>
-  <si>
-    <t>ER-positive breast cancer</t>
-  </si>
-  <si>
-    <t>Ischaemic stroke before age 75</t>
-  </si>
-  <si>
-    <t>Sex, genotyping chip</t>
-  </si>
-  <si>
-    <t>Extra comment for test</t>
-  </si>
-  <si>
-    <t>1.24 [1.2,1.29]</t>
-  </si>
-  <si>
-    <t>1.53 [1.5,1.56]</t>
-  </si>
-  <si>
-    <t>1.64 [1.6,1.68]</t>
-  </si>
-  <si>
-    <t>0.522 [0.519,0.527]</t>
-  </si>
-  <si>
-    <t>0.581 [0.571,0.592]</t>
-  </si>
-  <si>
-    <t>mean:54.3;range:[50.1,58.4];unit:years</t>
-  </si>
-  <si>
-    <t>Australia, Belarus, Belgium, Canada, Denmark, Finland, France, Germany, Greece, Ireland, Netherlands, Norway, Poland, Sweden, UK, USA</t>
-  </si>
-  <si>
-    <t>Prevalent and incident Ischaemic stroke</t>
-  </si>
-  <si>
-    <t>mean:6.2;sd:1.7;unit:years</t>
-  </si>
-  <si>
-    <t>ABC|DEF|GHIJ</t>
-  </si>
-  <si>
-    <t>ABC|DEF|KLMN</t>
-  </si>
-  <si>
-    <t>iCOGS</t>
-  </si>
-  <si>
-    <t>Validation set</t>
   </si>
 </sst>
 </file>
@@ -1380,67 +1380,6 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1452,52 +1391,52 @@
         <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1505,25 +1444,25 @@
         <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C2">
         <v>1234</v>
       </c>
       <c r="H2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="I2" t="s">
         <v>80</v>
       </c>
       <c r="J2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="N2" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="O2" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1531,25 +1470,25 @@
         <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C3">
         <v>1234</v>
       </c>
       <c r="H3" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="I3" t="s">
         <v>80</v>
       </c>
       <c r="J3" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="N3" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="O3" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1557,31 +1496,31 @@
         <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C4">
         <v>230000</v>
       </c>
       <c r="H4" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="I4" t="s">
         <v>80</v>
       </c>
       <c r="J4" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="L4" t="s">
         <v>73</v>
       </c>
       <c r="N4" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="O4" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="Q4" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1589,31 +1528,31 @@
         <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C5">
         <v>250000</v>
       </c>
       <c r="H5" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="I5" t="s">
         <v>80</v>
       </c>
       <c r="J5" t="s">
+        <v>112</v>
+      </c>
+      <c r="L5" t="s">
+        <v>114</v>
+      </c>
+      <c r="N5" t="s">
+        <v>118</v>
+      </c>
+      <c r="O5" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q5" t="s">
         <v>124</v>
-      </c>
-      <c r="L5" t="s">
-        <v>126</v>
-      </c>
-      <c r="N5" t="s">
-        <v>130</v>
-      </c>
-      <c r="O5" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1621,7 +1560,7 @@
         <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C6">
         <v>11000</v>
@@ -1633,19 +1572,19 @@
         <v>10150</v>
       </c>
       <c r="H6" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="J6" t="s">
+        <v>113</v>
+      </c>
+      <c r="L6" t="s">
+        <v>115</v>
+      </c>
+      <c r="P6" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q6" t="s">
         <v>125</v>
-      </c>
-      <c r="L6" t="s">
-        <v>127</v>
-      </c>
-      <c r="P6" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1653,7 +1592,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O4"/>
   <sheetViews>
@@ -1663,13 +1602,13 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>56</v>
@@ -1678,10 +1617,10 @@
         <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>57</v>
@@ -1690,39 +1629,39 @@
         <v>58</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="B2" t="s">
         <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="H2">
         <v>10000001</v>
@@ -1731,27 +1670,27 @@
         <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="N2" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="B3" t="s">
         <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="H3">
         <v>10000001</v>
@@ -1760,30 +1699,30 @@
         <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="F4" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="G4" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="H4">
         <v>10000002</v>
@@ -1792,10 +1731,10 @@
         <v>26</v>
       </c>
       <c r="J4" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="N4" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1803,7 +1742,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q4"/>
   <sheetViews>
@@ -1813,60 +1752,60 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="B2" t="s">
         <v>65</v>
@@ -1881,24 +1820,24 @@
         <v>30382</v>
       </c>
       <c r="H2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="J2" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="L2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="P2" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="Q2" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="B3" t="s">
         <v>66</v>
@@ -1913,24 +1852,24 @@
         <v>31560</v>
       </c>
       <c r="H3" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="J3" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="L3" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="P3" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="Q3" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
@@ -1948,24 +1887,85 @@
         <v>45.4</v>
       </c>
       <c r="G4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J4" t="s">
+        <v>113</v>
+      </c>
+      <c r="L4" t="s">
+        <v>155</v>
+      </c>
+      <c r="M4" t="s">
+        <v>156</v>
+      </c>
+      <c r="P4" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>164</v>
       </c>
-      <c r="H4" t="s">
-        <v>121</v>
-      </c>
-      <c r="J4" t="s">
-        <v>125</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="B3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>166</v>
       </c>
-      <c r="M4" t="s">
-        <v>167</v>
-      </c>
-      <c r="P4" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="B5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" t="s">
         <v>171</v>
       </c>
     </row>

--- a/tests/output/all_metadata/pgs_all_metadata.xlsx
+++ b/tests/output/all_metadata/pgs_all_metadata.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="173">
   <si>
     <t>PGS Catalog version</t>
   </si>
@@ -335,7 +335,10 @@
     <t>GWAS Catalog Study ID (GCST...)</t>
   </si>
   <si>
-    <t>Source PubMed ID (PMID) or doi</t>
+    <t>Source PubMed ID (PMID)</t>
+  </si>
+  <si>
+    <t>Source DOI</t>
   </si>
   <si>
     <t>Cohort(s)</t>
@@ -380,15 +383,6 @@
     <t>GCST3</t>
   </si>
   <si>
-    <t>10000011</t>
-  </si>
-  <si>
-    <t>10000012</t>
-  </si>
-  <si>
-    <t>10000013</t>
-  </si>
-  <si>
     <t>UKB</t>
   </si>
   <si>
@@ -492,6 +486,15 @@
   </si>
   <si>
     <t>mean:6.2;sd:1.7;unit:years</t>
+  </si>
+  <si>
+    <t>10.2021/pgs.1001</t>
+  </si>
+  <si>
+    <t>10.2021/pgs.1002</t>
+  </si>
+  <si>
+    <t>10.2021/pgs.1003</t>
   </si>
   <si>
     <t>ABC|DEF|GHIJ</t>
@@ -1380,13 +1383,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -1438,129 +1441,132 @@
       <c r="Q1" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C2">
         <v>1234</v>
       </c>
       <c r="H2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I2" t="s">
         <v>80</v>
       </c>
       <c r="J2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N2" t="s">
-        <v>116</v>
-      </c>
-      <c r="O2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>117</v>
+      </c>
+      <c r="O2">
+        <v>10000011</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C3">
         <v>1234</v>
       </c>
       <c r="H3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I3" t="s">
         <v>80</v>
       </c>
       <c r="J3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N3" t="s">
-        <v>116</v>
-      </c>
-      <c r="O3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>117</v>
+      </c>
+      <c r="O3">
+        <v>10000011</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C4">
         <v>230000</v>
       </c>
       <c r="H4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I4" t="s">
         <v>80</v>
       </c>
       <c r="J4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L4" t="s">
         <v>73</v>
       </c>
       <c r="N4" t="s">
-        <v>117</v>
-      </c>
-      <c r="O4" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>118</v>
+      </c>
+      <c r="O4">
+        <v>10000012</v>
+      </c>
+      <c r="R4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C5">
         <v>250000</v>
       </c>
       <c r="H5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I5" t="s">
         <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N5" t="s">
-        <v>118</v>
-      </c>
-      <c r="O5" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>119</v>
+      </c>
+      <c r="O5">
+        <v>10000013</v>
+      </c>
+      <c r="R5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
         <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C6">
         <v>11000</v>
@@ -1572,19 +1578,19 @@
         <v>10150</v>
       </c>
       <c r="H6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L6" t="s">
-        <v>115</v>
-      </c>
-      <c r="P6" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="Q6" t="s">
-        <v>125</v>
+        <v>120</v>
+      </c>
+      <c r="R6" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1602,13 +1608,13 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>56</v>
@@ -1617,10 +1623,10 @@
         <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>57</v>
@@ -1629,39 +1635,39 @@
         <v>58</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B2" t="s">
         <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H2">
         <v>10000001</v>
@@ -1670,27 +1676,27 @@
         <v>25</v>
       </c>
       <c r="K2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N2" t="s">
         <v>149</v>
-      </c>
-      <c r="N2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
         <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H3">
         <v>10000001</v>
@@ -1699,30 +1705,30 @@
         <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
       <c r="E4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G4" t="s">
         <v>145</v>
-      </c>
-      <c r="F4" t="s">
-        <v>146</v>
-      </c>
-      <c r="G4" t="s">
-        <v>147</v>
       </c>
       <c r="H4">
         <v>10000002</v>
@@ -1731,10 +1737,10 @@
         <v>26</v>
       </c>
       <c r="J4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="N4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1744,15 +1750,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>46</v>
@@ -1802,10 +1808,13 @@
       <c r="Q1" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B2" t="s">
         <v>65</v>
@@ -1820,24 +1829,27 @@
         <v>30382</v>
       </c>
       <c r="H2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="P2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>158</v>
+      </c>
+      <c r="R2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B3" t="s">
         <v>66</v>
@@ -1852,24 +1864,27 @@
         <v>31560</v>
       </c>
       <c r="H3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="P3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Q3" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
@@ -1887,25 +1902,28 @@
         <v>45.4</v>
       </c>
       <c r="G4" t="s">
+        <v>151</v>
+      </c>
+      <c r="H4" t="s">
+        <v>110</v>
+      </c>
+      <c r="J4" t="s">
+        <v>114</v>
+      </c>
+      <c r="L4" t="s">
         <v>153</v>
       </c>
-      <c r="H4" t="s">
-        <v>109</v>
-      </c>
-      <c r="J4" t="s">
-        <v>113</v>
-      </c>
-      <c r="L4" t="s">
-        <v>155</v>
-      </c>
       <c r="M4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="P4" t="s">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="Q4" t="s">
-        <v>160</v>
+        <v>120</v>
+      </c>
+      <c r="R4" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -1923,50 +1941,50 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/tests/output/all_metadata/pgs_all_metadata.xlsx
+++ b/tests/output/all_metadata/pgs_all_metadata.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="176">
   <si>
     <t>PGS Catalog version</t>
   </si>
@@ -191,6 +191,9 @@
     <t>Number of Interaction Terms</t>
   </si>
   <si>
+    <t>Type of Variant Weight</t>
+  </si>
+  <si>
     <t>PGS Publication (PGP) ID</t>
   </si>
   <si>
@@ -267,6 +270,12 @@
   </si>
   <si>
     <t>hg19</t>
+  </si>
+  <si>
+    <t>log(OR)</t>
+  </si>
+  <si>
+    <t>beta</t>
   </si>
   <si>
     <t>Multi-ancestry (including European):100</t>
@@ -1132,13 +1141,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -1196,16 +1205,19 @@
       <c r="S1" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
         <v>35</v>
@@ -1214,13 +1226,13 @@
         <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I2">
         <v>100</v>
@@ -1229,42 +1241,45 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L2" t="s">
         <v>13</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>10000001</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>25</v>
       </c>
-      <c r="N2" t="b">
+      <c r="O2" t="b">
         <v>1</v>
       </c>
-      <c r="O2" t="s">
-        <v>82</v>
-      </c>
       <c r="P2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q2" t="s">
-        <v>85</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="S2" t="s">
+        <v>86</v>
+      </c>
+      <c r="R2" t="s">
+        <v>88</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="T2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
         <v>36</v>
@@ -1273,13 +1288,13 @@
         <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I3">
         <v>100</v>
@@ -1288,54 +1303,57 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L3" t="s">
         <v>13</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>10000001</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>25</v>
       </c>
-      <c r="N3" t="b">
+      <c r="O3" t="b">
         <v>1</v>
       </c>
-      <c r="O3" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>83</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="S3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="P3" t="s">
+        <v>86</v>
+      </c>
+      <c r="R3" t="s">
+        <v>86</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="T3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I4">
         <v>3200000</v>
@@ -1344,38 +1362,41 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L4" t="s">
         <v>14</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>10000002</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>26</v>
       </c>
-      <c r="N4" t="b">
+      <c r="O4" t="b">
         <v>1</v>
       </c>
-      <c r="O4" t="s">
-        <v>84</v>
-      </c>
       <c r="P4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Q4" t="s">
         <v>86</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="R4" t="s">
         <v>89</v>
       </c>
-      <c r="S4" t="s">
-        <v>90</v>
+      <c r="S4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="T4" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="R2" r:id="rId1"/>
-    <hyperlink ref="R3" r:id="rId2"/>
-    <hyperlink ref="R4" r:id="rId3"/>
+    <hyperlink ref="S2" r:id="rId1"/>
+    <hyperlink ref="S3" r:id="rId2"/>
+    <hyperlink ref="S4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1394,78 +1415,78 @@
         <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C2">
         <v>1234</v>
       </c>
       <c r="H2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="N2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="O2">
         <v>10000011</v>
@@ -1473,25 +1494,25 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C3">
         <v>1234</v>
       </c>
       <c r="H3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="N3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="O3">
         <v>10000011</v>
@@ -1499,74 +1520,74 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C4">
         <v>230000</v>
       </c>
       <c r="H4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O4">
         <v>10000012</v>
       </c>
       <c r="R4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C5">
         <v>250000</v>
       </c>
       <c r="H5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="L5" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="N5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="O5">
         <v>10000013</v>
       </c>
       <c r="R5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C6">
         <v>11000</v>
@@ -1578,19 +1599,19 @@
         <v>10150</v>
       </c>
       <c r="H6" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="L6" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q6" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="R6" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1608,66 +1629,66 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H2">
         <v>10000001</v>
@@ -1676,27 +1697,27 @@
         <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="N2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H3">
         <v>10000001</v>
@@ -1705,30 +1726,30 @@
         <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H4">
         <v>10000002</v>
@@ -1737,10 +1758,10 @@
         <v>26</v>
       </c>
       <c r="J4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="N4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -1758,66 +1779,66 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C2">
         <v>61055</v>
@@ -1829,30 +1850,30 @@
         <v>30382</v>
       </c>
       <c r="H2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="P2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="R2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C3">
         <v>51925</v>
@@ -1864,30 +1885,30 @@
         <v>31560</v>
       </c>
       <c r="H3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="P3" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="R3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C4">
         <v>397390</v>
@@ -1902,28 +1923,28 @@
         <v>45.4</v>
       </c>
       <c r="G4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="L4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="P4" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="R4" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -1941,50 +1962,50 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B3" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B6" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/tests/output/all_metadata/pgs_all_metadata.xlsx
+++ b/tests/output/all_metadata/pgs_all_metadata.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="179">
   <si>
     <t>PGS Catalog version</t>
   </si>
@@ -524,6 +524,9 @@
     <t>Cohort Name</t>
   </si>
   <si>
+    <t>Previous/other/additional names</t>
+  </si>
+  <si>
     <t>ABC</t>
   </si>
   <si>
@@ -549,6 +552,12 @@
   </si>
   <si>
     <t>UK Biobank</t>
+  </si>
+  <si>
+    <t>ABC-1</t>
+  </si>
+  <si>
+    <t>UKBB</t>
   </si>
 </sst>
 </file>
@@ -1954,58 +1963,67 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>170</v>
-      </c>
       <c r="B5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>123</v>
       </c>
       <c r="B6" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="C6" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/tests/output/all_metadata/pgs_all_metadata.xlsx
+++ b/tests/output/all_metadata/pgs_all_metadata.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="182">
   <si>
     <t>PGS Catalog version</t>
   </si>
@@ -53,6 +53,9 @@
     <t>Publication Date</t>
   </si>
   <si>
+    <t>Release Date</t>
+  </si>
+  <si>
     <t>Authors</t>
   </si>
   <si>
@@ -90,6 +93,12 @@
   </si>
   <si>
     <t>2019-10-01</t>
+  </si>
+  <si>
+    <t>2022-12-01</t>
+  </si>
+  <si>
+    <t>2022-10-01</t>
   </si>
   <si>
     <t>First T, Other A, Other B</t>
@@ -973,13 +982,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1004,56 +1013,65 @@
       <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2">
+        <v>10000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E3" t="s">
         <v>23</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F3" t="s">
         <v>25</v>
       </c>
-      <c r="H2">
-        <v>10000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>24</v>
-      </c>
       <c r="G3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3">
         <v>10000002</v>
       </c>
     </row>
@@ -1072,69 +1090,69 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1150,98 +1168,101 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
+        <v>10</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I2">
         <v>100</v>
@@ -1250,60 +1271,63 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="L2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M2">
         <v>10000001</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O2" t="b">
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Q2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="R2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="T2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
+        <v>24</v>
+      </c>
+      <c r="U2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I3">
         <v>100</v>
@@ -1312,57 +1336,60 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M3">
         <v>10000001</v>
       </c>
       <c r="N3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O3" t="b">
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="R3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="T3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
+        <v>24</v>
+      </c>
+      <c r="U3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I4">
         <v>3200000</v>
@@ -1371,34 +1398,37 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="L4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M4">
         <v>10000002</v>
       </c>
       <c r="N4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O4" t="b">
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="Q4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="R4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="T4" t="s">
-        <v>93</v>
+        <v>25</v>
+      </c>
+      <c r="U4" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1421,81 +1451,81 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C2">
         <v>1234</v>
       </c>
       <c r="H2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="N2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="O2">
         <v>10000011</v>
@@ -1503,25 +1533,25 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C3">
         <v>1234</v>
       </c>
       <c r="H3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="N3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="O3">
         <v>10000011</v>
@@ -1529,74 +1559,74 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C4">
         <v>230000</v>
       </c>
       <c r="H4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="N4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O4">
         <v>10000012</v>
       </c>
       <c r="R4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C5">
         <v>250000</v>
       </c>
       <c r="H5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="L5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="N5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="O5">
         <v>10000013</v>
       </c>
       <c r="R5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C6">
         <v>11000</v>
@@ -1608,19 +1638,19 @@
         <v>10150</v>
       </c>
       <c r="H6" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J6" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L6" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q6" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="R6" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1638,139 +1668,139 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H2">
         <v>10000001</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="N2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H3">
         <v>10000001</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G4" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="H4">
         <v>10000002</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="N4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -1788,66 +1818,66 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C2">
         <v>61055</v>
@@ -1859,30 +1889,30 @@
         <v>30382</v>
       </c>
       <c r="H2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="L2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="P2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="R2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C3">
         <v>51925</v>
@@ -1894,30 +1924,30 @@
         <v>31560</v>
       </c>
       <c r="H3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="L3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="P3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="R3" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C4">
         <v>397390</v>
@@ -1932,28 +1962,28 @@
         <v>45.4</v>
       </c>
       <c r="G4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L4" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M4" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="P4" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="R4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -1971,59 +2001,59 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B4" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B5" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B6" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C6" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/tests/output/all_metadata/pgs_all_metadata.xlsx
+++ b/tests/output/all_metadata/pgs_all_metadata.xlsx
@@ -440,7 +440,7 @@
     <t>Area Under the Receiver-Operating Characteristic Curve (AUROC)</t>
   </si>
   <si>
-    <t>Corcordance Statistic (C-index)</t>
+    <t>Concordance Statistic (C-index)</t>
   </si>
   <si>
     <t>Other Metric(s)</t>
